--- a/nmadb/480215.xlsx
+++ b/nmadb/480215.xlsx
@@ -1,6 +1,217 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Study year</t>
+  </si>
+  <si>
+    <t>Study name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Outcome: response rate/conditional response</t>
+  </si>
+  <si>
+    <t>Feltner et al., 2003</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Pregabalin</t>
+  </si>
+  <si>
+    <t>Pande et al., 2003</t>
+  </si>
+  <si>
+    <t>Venlafaxine Xl</t>
+  </si>
+  <si>
+    <t>Duloxetine</t>
+  </si>
+  <si>
+    <t>EMEA, 2006</t>
+  </si>
+  <si>
+    <t>Escitalopram</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>Pohl et al., 2005</t>
+  </si>
+  <si>
+    <t>Quetiepine</t>
+  </si>
+  <si>
+    <t>Paroxeteine</t>
+  </si>
+  <si>
+    <t>Rickels et al., 2005</t>
+  </si>
+  <si>
+    <t>Sertraline</t>
+  </si>
+  <si>
+    <t>Montgomery et al., 2008</t>
+  </si>
+  <si>
+    <t>Kasper et al., 2009</t>
+  </si>
+  <si>
+    <t>Montgomery et al., 2006</t>
+  </si>
+  <si>
+    <t>Davidson et al., 1999</t>
+  </si>
+  <si>
+    <t>Hartford et al., 2007</t>
+  </si>
+  <si>
+    <t>Nicolini et al., 2009</t>
+  </si>
+  <si>
+    <t>Bose et al., 2008</t>
+  </si>
+  <si>
+    <t>Hackett et al., 2003</t>
+  </si>
+  <si>
+    <t>Koponen et al., 2007</t>
+  </si>
+  <si>
+    <t>Rynn et al., 2008</t>
+  </si>
+  <si>
+    <t>Wu et al., 2011</t>
+  </si>
+  <si>
+    <t>Merideth et al., 2012</t>
+  </si>
+  <si>
+    <t>Baldwin et al., 2006</t>
+  </si>
+  <si>
+    <t>Ansseeau et al., 1991</t>
+  </si>
+  <si>
+    <t>Rickels et a., 2000</t>
+  </si>
+  <si>
+    <t>Khan et al., 2011</t>
+  </si>
+  <si>
+    <t>Bandelow et al., 2010</t>
+  </si>
+  <si>
+    <t>GSK, 2005</t>
+  </si>
+  <si>
+    <t>Pollack et al., 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allgulander et al., 2004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brawman-Mintzer et al., 2006 </t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +319,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +353,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +488,1157 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>72</v>
+      </c>
+      <c r="F3">
+        <v>118</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>51</v>
+      </c>
+      <c r="F5">
+        <v>123</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>134</v>
+      </c>
+      <c r="F9">
+        <v>227</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>2005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>82</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>140</v>
+      </c>
+      <c r="F11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
+      <c r="F13">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>2009</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>59</v>
+      </c>
+      <c r="F14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>71</v>
+      </c>
+      <c r="F15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1999</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>87</v>
+      </c>
+      <c r="F21">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>58</v>
+      </c>
+      <c r="F22">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>86</v>
+      </c>
+      <c r="F23">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>70</v>
+      </c>
+      <c r="F24">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2009</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>69</v>
+      </c>
+      <c r="F25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>97</v>
+      </c>
+      <c r="F26">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>98</v>
+      </c>
+      <c r="F27">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>57</v>
+      </c>
+      <c r="F28">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>67</v>
+      </c>
+      <c r="F29">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>44</v>
+      </c>
+      <c r="F31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2007</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>53</v>
+      </c>
+      <c r="F34">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>189</v>
+      </c>
+      <c r="F35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2008</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>48</v>
+      </c>
+      <c r="F36">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>67</v>
+      </c>
+      <c r="F37">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2011</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>54</v>
+      </c>
+      <c r="F38">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>75</v>
+      </c>
+      <c r="F39">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>98</v>
+      </c>
+      <c r="F40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>109</v>
+      </c>
+      <c r="F41">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>133</v>
+      </c>
+      <c r="F42">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>83</v>
+      </c>
+      <c r="F43">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>204</v>
+      </c>
+      <c r="F44">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>84</v>
+      </c>
+      <c r="F45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>1991</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>35</v>
+      </c>
+      <c r="F47">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>66</v>
+      </c>
+      <c r="F49">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>2011</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>114</v>
+      </c>
+      <c r="F50">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>139</v>
+      </c>
+      <c r="F51">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>2010</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>113</v>
+      </c>
+      <c r="F52">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="C53">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>153</v>
+      </c>
+      <c r="F53">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>141</v>
+      </c>
+      <c r="F54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>2005</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>66</v>
+      </c>
+      <c r="F55">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="C56">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>65</v>
+      </c>
+      <c r="F56">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>2001</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>77</v>
+      </c>
+      <c r="F57">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>2004</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>103</v>
+      </c>
+      <c r="F60">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>2006</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>78</v>
+      </c>
+      <c r="F61">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="C62">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>97</v>
+      </c>
+      <c r="F62">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nmadb/480215.xlsx
+++ b/nmadb/480215.xlsx
@@ -197,10 +197,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +499,13 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
@@ -536,16 +540,16 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
         <v>29</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>63</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -560,16 +564,16 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>72</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>118</v>
       </c>
       <c r="J3" s="1"/>
@@ -588,16 +592,16 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>17</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>62</v>
       </c>
       <c r="J4" s="1"/>
@@ -610,16 +614,16 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>51</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>123</v>
       </c>
       <c r="J5" s="1"/>
@@ -638,16 +642,16 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>24</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>60</v>
       </c>
       <c r="J6" s="1"/>
@@ -660,16 +664,16 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="C7">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>55</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>110</v>
       </c>
       <c r="J7" s="1"/>
@@ -688,16 +692,16 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>28</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>79</v>
       </c>
       <c r="J8" s="1"/>
@@ -710,16 +714,16 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9">
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>134</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>227</v>
       </c>
       <c r="J9" s="1"/>
@@ -738,16 +742,16 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>29</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>82</v>
       </c>
       <c r="J10" s="1"/>
@@ -760,16 +764,16 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="C11">
+      <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>140</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>248</v>
       </c>
     </row>
@@ -780,30 +784,30 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>39</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="C13">
+      <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>90</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>158</v>
       </c>
     </row>
@@ -814,44 +818,44 @@
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>59</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="C15">
+      <c r="C15" s="3">
         <v>7</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>71</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="C16">
+      <c r="C16" s="3">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>55</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>103</v>
       </c>
     </row>
@@ -862,44 +866,44 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>8</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
         <v>45</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="C18">
+      <c r="C18" s="3">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>117</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="C19">
+      <c r="C19" s="3">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>70</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>90</v>
       </c>
     </row>
@@ -910,30 +914,30 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>9</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <v>35</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="C21">
+      <c r="C21" s="3">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>87</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>153</v>
       </c>
     </row>
@@ -944,44 +948,44 @@
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>10</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>58</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="C23">
+      <c r="C23" s="3">
         <v>10</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>86</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="C24">
+      <c r="C24" s="3">
         <v>10</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>70</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>139</v>
       </c>
     </row>
@@ -992,44 +996,44 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>11</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
         <v>69</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="C26">
+      <c r="C26" s="3">
         <v>11</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>97</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="C27">
+      <c r="C27" s="3">
         <v>11</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>98</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>138</v>
       </c>
     </row>
@@ -1040,44 +1044,44 @@
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>12</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
         <v>57</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="C29">
+      <c r="C29" s="3">
         <v>12</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>67</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="C30">
+      <c r="C30" s="3">
         <v>12</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>67</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>122</v>
       </c>
     </row>
@@ -1088,44 +1092,44 @@
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>13</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
         <v>44</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="C32">
+      <c r="C32" s="3">
         <v>13</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="C33">
+      <c r="C33" s="3">
         <v>13</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>6</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>50</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>87</v>
       </c>
     </row>
@@ -1136,30 +1140,30 @@
       <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>14</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
         <v>53</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="C35">
+      <c r="C35" s="3">
         <v>14</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>4</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>189</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>293</v>
       </c>
     </row>
@@ -1170,30 +1174,30 @@
       <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>15</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
         <v>48</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="C37">
+      <c r="C37" s="3">
         <v>15</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>4</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>67</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>134</v>
       </c>
     </row>
@@ -1204,30 +1208,30 @@
       <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>16</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
         <v>54</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="C39">
+      <c r="C39" s="3">
         <v>16</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>4</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>75</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>95</v>
       </c>
     </row>
@@ -1238,44 +1242,44 @@
       <c r="B40" t="s">
         <v>34</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>17</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
         <v>98</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="C41">
+      <c r="C41" s="3">
         <v>17</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>5</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>109</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="C42">
+      <c r="C42" s="3">
         <v>17</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>7</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>133</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>178</v>
       </c>
     </row>
@@ -1286,44 +1290,44 @@
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>18</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
         <v>83</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="C44">
+      <c r="C44" s="3">
         <v>18</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>5</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>204</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="C45">
+      <c r="C45" s="3">
         <v>18</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>8</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>84</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>127</v>
       </c>
     </row>
@@ -1334,30 +1338,30 @@
       <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>19</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
         <v>19</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="C47">
+      <c r="C47" s="3">
         <v>19</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>6</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>35</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>52</v>
       </c>
     </row>
@@ -1368,30 +1372,30 @@
       <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>20</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
         <v>46</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="C49">
+      <c r="C49" s="3">
         <v>20</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>6</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>66</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>89</v>
       </c>
     </row>
@@ -1402,30 +1406,30 @@
       <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>21</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
         <v>114</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="C51">
+      <c r="C51" s="3">
         <v>21</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>7</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>139</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>195</v>
       </c>
     </row>
@@ -1436,44 +1440,44 @@
       <c r="B52" t="s">
         <v>39</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>22</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
         <v>113</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="C53">
+      <c r="C53" s="3">
         <v>22</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>7</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>153</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="C54">
+      <c r="C54" s="3">
         <v>22</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>8</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>141</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>200</v>
       </c>
     </row>
@@ -1484,30 +1488,30 @@
       <c r="B55" t="s">
         <v>40</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>23</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
         <v>66</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="C56">
+      <c r="C56" s="3">
         <v>23</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>8</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>65</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>157</v>
       </c>
     </row>
@@ -1518,30 +1522,30 @@
       <c r="B57" t="s">
         <v>41</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>24</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
         <v>77</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="C58">
+      <c r="C58" s="3">
         <v>24</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>8</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>144</v>
       </c>
     </row>
@@ -1552,30 +1556,30 @@
       <c r="B59" t="s">
         <v>42</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>25</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
         <v>55</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="C60">
+      <c r="C60" s="3">
         <v>25</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>9</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>103</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>173</v>
       </c>
     </row>
@@ -1586,30 +1590,30 @@
       <c r="B61" t="s">
         <v>43</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>26</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
         <v>78</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="C62">
+      <c r="C62" s="3">
         <v>26</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>9</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>97</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>156</v>
       </c>
     </row>
